--- a/your-code/Conditional Formats exercises.xlsx
+++ b/your-code/Conditional Formats exercises.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c646aa9d978bc39d/Documents/Module 4/Week 1/Day 1 - Excel Basic Functions/Lab/lab_3_conditional-formating/your-code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{8923E855-C02E-4B75-8C58-776D5767F77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{821F8CA9-D6B9-40E1-8A9C-FD896441D5A6}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{8923E855-C02E-4B75-8C58-776D5767F77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B94F838-5474-483F-80B2-73FA5D969A1B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercise 1 solved" sheetId="3" state="hidden" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <definedName name="Tax_Rate" localSheetId="1">'Exercise 2 solved'!$M$5</definedName>
     <definedName name="Tax_Rate">'Exercise 2'!$M$5</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -69,24 +69,24 @@
     <t>North</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
     <t>South-East</t>
   </si>
   <si>
     <t>Midlands</t>
   </si>
   <si>
+    <t>F</t>
+  </si>
+  <si>
     <t>South-West</t>
   </si>
   <si>
     <t>Scotland</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>Conditional formats in cols</t>
   </si>
   <si>
@@ -99,181 +99,181 @@
     <t>Female Candidates</t>
   </si>
   <si>
+    <t>Mature candidates (&gt; 40 years) and data bars</t>
+  </si>
+  <si>
     <t>Top 5%</t>
   </si>
   <si>
+    <t>Staff ID</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>Initial</t>
+  </si>
+  <si>
+    <t>Hours Worked</t>
+  </si>
+  <si>
+    <t>Pay</t>
+  </si>
+  <si>
+    <t>Nat Ins</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>Extra remuneration</t>
+  </si>
+  <si>
+    <t>Final Pay</t>
+  </si>
+  <si>
+    <t>Hourly Pay Rate</t>
+  </si>
+  <si>
+    <t>M/111</t>
+  </si>
+  <si>
+    <t>Abbot</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Nat Ins Rate</t>
+  </si>
+  <si>
+    <t>M/289</t>
+  </si>
+  <si>
+    <t>Arlington</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>FFF/112</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Pension Cont</t>
+  </si>
+  <si>
+    <t>F/219</t>
+  </si>
+  <si>
+    <t>Davies</t>
+  </si>
+  <si>
+    <t>F/881</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>BNM/6</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>F/66</t>
+  </si>
+  <si>
+    <t>Fox</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>M/557</t>
+  </si>
+  <si>
+    <t>Kelsey</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>M/44</t>
+  </si>
+  <si>
+    <t>Marsh</t>
+  </si>
+  <si>
+    <t>MFF/191</t>
+  </si>
+  <si>
+    <t>Oliver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M </t>
+  </si>
+  <si>
+    <t>M/1352</t>
+  </si>
+  <si>
+    <t>Potts</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>F/336</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Cond formats in cols:</t>
+  </si>
+  <si>
+    <t>Symbol after "/" equal to 1</t>
+  </si>
+  <si>
+    <t>Lenght &gt; 5</t>
+  </si>
+  <si>
+    <t>last week</t>
+  </si>
+  <si>
+    <t>Top 25%</t>
+  </si>
+  <si>
+    <t>&gt;average</t>
+  </si>
+  <si>
+    <t>color scales: bigger is bad</t>
+  </si>
+  <si>
+    <t>Color scales: bigger is good</t>
+  </si>
+  <si>
+    <t>icom set: &gt;2000;&gt;1000;&lt;1000</t>
+  </si>
+  <si>
+    <t>Cand ID &lt; 300000</t>
+  </si>
+  <si>
     <t>Mature cand &gt; 40 and data bars</t>
-  </si>
-  <si>
-    <t>icom set: &gt;2000;&gt;1000;&lt;1000</t>
-  </si>
-  <si>
-    <t>Color scales: bigger is good</t>
-  </si>
-  <si>
-    <t>color scales: bigger is bad</t>
-  </si>
-  <si>
-    <t>&gt;average</t>
-  </si>
-  <si>
-    <t>Top 25%</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>Lenght &gt; 5</t>
-  </si>
-  <si>
-    <t>Symbol after "/" equal to 1</t>
-  </si>
-  <si>
-    <t>Cond formats in cols:</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>Taylor</t>
-  </si>
-  <si>
-    <t>F/336</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Potts</t>
-  </si>
-  <si>
-    <t>M/1352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M </t>
-  </si>
-  <si>
-    <t>Oliver</t>
-  </si>
-  <si>
-    <t>MFF/191</t>
-  </si>
-  <si>
-    <t>Marsh</t>
-  </si>
-  <si>
-    <t>M/44</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Kelsey</t>
-  </si>
-  <si>
-    <t>M/557</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Fox</t>
-  </si>
-  <si>
-    <t>F/66</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>Davis</t>
-  </si>
-  <si>
-    <t>BNM/6</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>F/881</t>
-  </si>
-  <si>
-    <t>Davies</t>
-  </si>
-  <si>
-    <t>F/219</t>
-  </si>
-  <si>
-    <t>Pension Cont</t>
-  </si>
-  <si>
-    <t>Brown</t>
-  </si>
-  <si>
-    <t>FFF/112</t>
-  </si>
-  <si>
-    <t>Tax Rate</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>Arlington</t>
-  </si>
-  <si>
-    <t>M/289</t>
-  </si>
-  <si>
-    <t>Nat Ins Rate</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>Abbot</t>
-  </si>
-  <si>
-    <t>M/111</t>
-  </si>
-  <si>
-    <t>Hourly Pay Rate</t>
-  </si>
-  <si>
-    <t>Final Pay</t>
-  </si>
-  <si>
-    <t>Extra remuneration</t>
-  </si>
-  <si>
-    <t>Tax</t>
-  </si>
-  <si>
-    <t>Nat Ins</t>
-  </si>
-  <si>
-    <t>Pay</t>
-  </si>
-  <si>
-    <t>Hours Worked</t>
-  </si>
-  <si>
-    <t>Initial</t>
-  </si>
-  <si>
-    <t>Surname</t>
-  </si>
-  <si>
-    <t>Staff ID</t>
-  </si>
-  <si>
-    <t>Mature candidates (&gt; 40 years) and data bars</t>
-  </si>
-  <si>
-    <t>last week</t>
-  </si>
-  <si>
-    <t>Cand ID &lt; 300000</t>
   </si>
 </sst>
 </file>
@@ -284,7 +284,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="&quot;£&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,7 +412,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -465,12 +465,108 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color rgb="FF000000"/>
+        </left>
+        <bottom style="dotted">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -1556,17 +1652,17 @@
       <selection activeCell="N3" sqref="N3:Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
+    <col min="6" max="6" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6">
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
@@ -1583,7 +1679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6">
       <c r="B4" s="4">
         <v>980748</v>
       </c>
@@ -1591,7 +1687,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E4" s="4">
         <v>24</v>
@@ -1600,15 +1696,15 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6">
       <c r="B5" s="4">
         <v>379829</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="E5" s="4">
         <v>32</v>
@@ -1617,15 +1713,15 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6">
       <c r="B6" s="4">
         <v>838293</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E6" s="4">
         <v>35</v>
@@ -1634,15 +1730,15 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6">
       <c r="B7" s="4">
         <v>384953</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" s="4">
         <v>27</v>
@@ -1651,7 +1747,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6">
       <c r="B8" s="4">
         <v>234242</v>
       </c>
@@ -1659,7 +1755,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" s="4">
         <v>33</v>
@@ -1668,15 +1764,15 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6">
       <c r="B9" s="4">
         <v>234625</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E9" s="4">
         <v>28</v>
@@ -1685,15 +1781,15 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6">
       <c r="B10" s="4">
         <v>546175</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E10" s="4">
         <v>35</v>
@@ -1702,15 +1798,15 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6">
       <c r="B11" s="4">
         <v>185675</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="E11" s="4">
         <v>35</v>
@@ -1719,7 +1815,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6">
       <c r="B12" s="4">
         <v>456546</v>
       </c>
@@ -1727,7 +1823,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E12" s="4">
         <v>42</v>
@@ -1736,15 +1832,15 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6">
       <c r="B13" s="4">
         <v>465464</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="E13" s="4">
         <v>27</v>
@@ -1753,15 +1849,15 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6">
       <c r="B14" s="4">
         <v>745644</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14" s="4">
         <v>26</v>
@@ -1770,15 +1866,15 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6">
       <c r="B15" s="4">
         <v>641645</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="E15" s="4">
         <v>29</v>
@@ -1787,15 +1883,15 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6">
       <c r="B16" s="4">
         <v>727654</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E16" s="4">
         <v>33</v>
@@ -1804,7 +1900,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="B17" s="4">
         <v>345634</v>
       </c>
@@ -1812,7 +1908,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17" s="4">
         <v>30</v>
@@ -1821,7 +1917,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="B18" s="4">
         <v>457465</v>
       </c>
@@ -1829,7 +1925,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E18" s="4">
         <v>45</v>
@@ -1838,15 +1934,15 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="B19" s="4">
         <v>115465</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E19" s="4">
         <v>31</v>
@@ -1855,15 +1951,15 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="B20" s="4">
         <v>345464</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E20" s="4">
         <v>30</v>
@@ -1872,15 +1968,15 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="B21" s="4">
         <v>896667</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E21" s="4">
         <v>27</v>
@@ -1889,15 +1985,15 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="B22" s="4">
         <v>654745</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E22" s="4">
         <v>27</v>
@@ -1906,15 +2002,15 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="B23" s="4">
         <v>568545</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E23" s="4">
         <v>29</v>
@@ -1923,15 +2019,15 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="B24" s="4">
         <v>667563</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E24" s="4">
         <v>31</v>
@@ -1940,15 +2036,15 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="B25" s="4">
         <v>346366</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="E25" s="4">
         <v>33</v>
@@ -1957,15 +2053,15 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="B26" s="4">
         <v>643456</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E26" s="4">
         <v>42</v>
@@ -1974,7 +2070,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="40.9">
       <c r="A28" s="9" t="s">
         <v>12</v>
       </c>
@@ -1988,55 +2084,55 @@
         <v>15</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
     </row>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="33" customFormat="1"/>
+    <row r="34" customFormat="1"/>
+    <row r="35" customFormat="1"/>
+    <row r="36" customFormat="1"/>
+    <row r="37" customFormat="1"/>
   </sheetData>
   <conditionalFormatting sqref="B4:B26">
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="lessThan">
       <formula>300000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C26">
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="East">
+    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="East">
       <formula>NOT(ISERROR(SEARCH("East",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D26">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
     <cfRule type="dataBar" priority="3">
@@ -2053,7 +2149,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F26">
-    <cfRule type="top10" dxfId="6" priority="1" percent="1" rank="5"/>
+    <cfRule type="top10" dxfId="15" priority="1" percent="1" rank="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2087,67 +2183,67 @@
       <selection activeCell="N3" sqref="N3:Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="4" max="4" width="7.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
-    <col min="11" max="11" width="4.21875" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="11" max="11" width="4.28515625" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13">
       <c r="B3" s="25" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="L3" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="M3" s="22">
         <v>9.8699999999999992</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13">
       <c r="B4" s="3" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="E4" s="18">
         <f ca="1">TODAY()</f>
-        <v>45802</v>
+        <v>45819</v>
       </c>
       <c r="F4" s="17">
         <v>1000</v>
@@ -2169,25 +2265,25 @@
         <v>699</v>
       </c>
       <c r="L4" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="M4" s="20">
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13">
       <c r="B5" s="3" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="E5" s="18">
         <f t="shared" ref="E5:E15" ca="1" si="4">E4-1</f>
-        <v>45801</v>
+        <v>45818</v>
       </c>
       <c r="F5" s="17">
         <v>1500</v>
@@ -2209,25 +2305,25 @@
         <v>1048.5</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="M5" s="20">
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13">
       <c r="B6" s="3" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E6" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45800</v>
+        <v>45817</v>
       </c>
       <c r="F6" s="17">
         <v>1235</v>
@@ -2249,25 +2345,25 @@
         <v>863.26499999999999</v>
       </c>
       <c r="L6" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="M6" s="19">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13">
       <c r="B7" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45799</v>
+        <v>45816</v>
       </c>
       <c r="F7" s="17">
         <v>1452</v>
@@ -2289,19 +2385,19 @@
         <v>1014.948</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13">
       <c r="B8" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E8" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45798</v>
+        <v>45815</v>
       </c>
       <c r="F8" s="17">
         <v>5845</v>
@@ -2323,19 +2419,19 @@
         <v>4085.6549999999997</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13">
       <c r="B9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="E9" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45797</v>
+        <v>45814</v>
       </c>
       <c r="F9" s="17">
         <v>5000</v>
@@ -2357,19 +2453,19 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13">
       <c r="B10" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E10" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45796</v>
+        <v>45813</v>
       </c>
       <c r="F10" s="17">
         <v>1200</v>
@@ -2391,19 +2487,19 @@
         <v>838.8</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13">
       <c r="B11" s="3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E11" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45795</v>
+        <v>45812</v>
       </c>
       <c r="F11" s="17">
         <v>1320</v>
@@ -2425,19 +2521,19 @@
         <v>922.68000000000006</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13">
       <c r="B12" s="3" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E12" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45794</v>
+        <v>45811</v>
       </c>
       <c r="F12" s="17">
         <v>1478</v>
@@ -2459,19 +2555,19 @@
         <v>1033.1219999999998</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13">
       <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="E13" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45793</v>
+        <v>45810</v>
       </c>
       <c r="F13" s="17">
         <v>5369</v>
@@ -2493,19 +2589,19 @@
         <v>3752.931</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13">
       <c r="B14" s="3" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E14" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45792</v>
+        <v>45809</v>
       </c>
       <c r="F14" s="17">
         <v>2153</v>
@@ -2527,19 +2623,19 @@
         <v>1504.9470000000001</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13">
       <c r="B15" s="3" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E15" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45791</v>
+        <v>45808</v>
       </c>
       <c r="F15" s="17">
         <v>4752</v>
@@ -2561,15 +2657,15 @@
         <v>3321.6480000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13">
       <c r="B16" s="14" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="15"/>
       <c r="E16" s="14">
         <f ca="1">SUM(E4:E15)</f>
-        <v>549558</v>
+        <v>549762</v>
       </c>
       <c r="F16" s="13">
         <f>SUM(F4:F15)</f>
@@ -2592,67 +2688,67 @@
         <v>22580.495999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10">
       <c r="D17"/>
     </row>
-    <row r="18" spans="1:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="36.6" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B15">
-    <cfRule type="expression" dxfId="5" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="9" stopIfTrue="1">
       <formula>RIGHT(LEFT(B4,SEARCH("/",B4)+1),1)="1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C15">
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="13" priority="8">
       <formula>LEN(C4)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D15">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="H">
+    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="H">
       <formula>NOT(ISERROR(SEARCH("H",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E15">
-    <cfRule type="timePeriod" dxfId="2" priority="6" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="11" priority="6" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(E4,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(E4,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F15">
-    <cfRule type="top10" dxfId="1" priority="5" percent="1" rank="25"/>
+    <cfRule type="top10" dxfId="10" priority="5" percent="1" rank="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G15">
-    <cfRule type="aboveAverage" dxfId="0" priority="4"/>
+    <cfRule type="aboveAverage" dxfId="9" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H15">
     <cfRule type="colorScale" priority="3">
@@ -2697,21 +2793,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" style="1"/>
-    <col min="5" max="5" width="10.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" style="2"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="1"/>
+    <col min="5" max="5" width="10.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6">
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
@@ -2728,7 +2824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6">
       <c r="B4" s="4">
         <v>980748</v>
       </c>
@@ -2736,7 +2832,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E4" s="4">
         <v>24</v>
@@ -2745,15 +2841,15 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6">
       <c r="B5" s="4">
         <v>379829</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="E5" s="4">
         <v>32</v>
@@ -2762,15 +2858,15 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6">
       <c r="B6" s="4">
         <v>838293</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E6" s="4">
         <v>35</v>
@@ -2779,15 +2875,15 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6">
       <c r="B7" s="4">
         <v>384953</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" s="4">
         <v>27</v>
@@ -2796,7 +2892,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6">
       <c r="B8" s="4">
         <v>234242</v>
       </c>
@@ -2804,7 +2900,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" s="4">
         <v>33</v>
@@ -2813,15 +2909,15 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6">
       <c r="B9" s="4">
         <v>234625</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E9" s="4">
         <v>28</v>
@@ -2830,15 +2926,15 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6">
       <c r="B10" s="4">
         <v>546175</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E10" s="4">
         <v>35</v>
@@ -2847,15 +2943,15 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6">
       <c r="B11" s="4">
         <v>185675</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="E11" s="4">
         <v>35</v>
@@ -2864,7 +2960,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6">
       <c r="B12" s="4">
         <v>456546</v>
       </c>
@@ -2872,7 +2968,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E12" s="4">
         <v>42</v>
@@ -2881,15 +2977,15 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6">
       <c r="B13" s="4">
         <v>465464</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="E13" s="4">
         <v>27</v>
@@ -2898,15 +2994,15 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6">
       <c r="B14" s="4">
         <v>745644</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14" s="4">
         <v>26</v>
@@ -2915,15 +3011,15 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6">
       <c r="B15" s="4">
         <v>641645</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="E15" s="4">
         <v>29</v>
@@ -2932,15 +3028,15 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6">
       <c r="B16" s="4">
         <v>727654</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E16" s="4">
         <v>33</v>
@@ -2949,7 +3045,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="B17" s="4">
         <v>345634</v>
       </c>
@@ -2957,7 +3053,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17" s="4">
         <v>30</v>
@@ -2966,7 +3062,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="B18" s="4">
         <v>457465</v>
       </c>
@@ -2974,7 +3070,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E18" s="4">
         <v>45</v>
@@ -2983,15 +3079,15 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="B19" s="4">
         <v>115465</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E19" s="4">
         <v>31</v>
@@ -3000,15 +3096,15 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="B20" s="4">
         <v>345464</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E20" s="4">
         <v>30</v>
@@ -3017,15 +3113,15 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="B21" s="4">
         <v>896667</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E21" s="4">
         <v>27</v>
@@ -3034,15 +3130,15 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="B22" s="4">
         <v>654745</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E22" s="4">
         <v>27</v>
@@ -3051,15 +3147,15 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="B23" s="4">
         <v>568545</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E23" s="4">
         <v>29</v>
@@ -3068,15 +3164,15 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="B24" s="4">
         <v>667563</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E24" s="4">
         <v>31</v>
@@ -3085,15 +3181,15 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="B25" s="4">
         <v>346366</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="E25" s="4">
         <v>33</v>
@@ -3102,15 +3198,15 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="B26" s="4">
         <v>643456</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E26" s="4">
         <v>42</v>
@@ -3119,12 +3215,12 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="30.6">
       <c r="A28" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>14</v>
@@ -3133,112 +3229,163 @@
         <v>15</v>
       </c>
       <c r="E28" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:6">
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
     </row>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="33" customFormat="1"/>
+    <row r="34" customFormat="1"/>
+    <row r="35" customFormat="1"/>
+    <row r="36" customFormat="1"/>
+    <row r="37" customFormat="1"/>
   </sheetData>
+  <conditionalFormatting sqref="B3:B26">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="lessThan">
+      <formula>300000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C26">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="south">
+      <formula>NOT(ISERROR(SEARCH("south",C3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D26">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="F">
+      <formula>NOT(ISERROR(SEARCH("F",D3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E26">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2B6F8658-D9FE-4E77-A7C2-06B92EFFB1FB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F26">
+    <cfRule type="top10" dxfId="5" priority="1" percent="1" rank="5"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2B6F8658-D9FE-4E77-A7C2-06B92EFFB1FB}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E3:E26</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4E3BC9-96B0-4DE5-AD9D-A5FC7055046E}">
-  <dimension ref="A3:M18"/>
+  <dimension ref="A3:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="4" max="4" width="7.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
-    <col min="11" max="11" width="4.21875" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="11" max="11" width="4.28515625" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:21">
       <c r="B3" s="25" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="L3" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="M3" s="22">
         <v>9.8699999999999992</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:21">
       <c r="B4" s="3" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="E4" s="18">
         <f ca="1">TODAY()</f>
-        <v>45802</v>
+        <v>45819</v>
       </c>
       <c r="F4" s="17">
         <v>1000</v>
@@ -3260,25 +3407,25 @@
         <v>699</v>
       </c>
       <c r="L4" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="M4" s="20">
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:21">
       <c r="B5" s="3" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="E5" s="18">
         <f t="shared" ref="E5:E15" ca="1" si="4">E4-1</f>
-        <v>45801</v>
+        <v>45818</v>
       </c>
       <c r="F5" s="17">
         <v>1500</v>
@@ -3300,25 +3447,25 @@
         <v>1048.5</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="M5" s="20">
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:21">
       <c r="B6" s="3" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E6" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45800</v>
+        <v>45817</v>
       </c>
       <c r="F6" s="17">
         <v>1235</v>
@@ -3340,25 +3487,25 @@
         <v>863.26499999999999</v>
       </c>
       <c r="L6" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="M6" s="19">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:21">
       <c r="B7" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45799</v>
+        <v>45816</v>
       </c>
       <c r="F7" s="17">
         <v>1452</v>
@@ -3380,19 +3527,19 @@
         <v>1014.948</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:21">
       <c r="B8" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E8" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45798</v>
+        <v>45815</v>
       </c>
       <c r="F8" s="17">
         <v>5845</v>
@@ -3414,19 +3561,19 @@
         <v>4085.6549999999997</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:21">
       <c r="B9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="E9" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45797</v>
+        <v>45814</v>
       </c>
       <c r="F9" s="17">
         <v>5000</v>
@@ -3448,19 +3595,19 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:21">
       <c r="B10" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E10" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45796</v>
+        <v>45813</v>
       </c>
       <c r="F10" s="17">
         <v>1200</v>
@@ -3482,19 +3629,19 @@
         <v>838.8</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:21">
       <c r="B11" s="3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E11" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45795</v>
+        <v>45812</v>
       </c>
       <c r="F11" s="17">
         <v>1320</v>
@@ -3516,19 +3663,19 @@
         <v>922.68000000000006</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:21">
       <c r="B12" s="3" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E12" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45794</v>
+        <v>45811</v>
       </c>
       <c r="F12" s="17">
         <v>1478</v>
@@ -3550,19 +3697,19 @@
         <v>1033.1219999999998</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:21">
       <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="E13" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45793</v>
+        <v>45810</v>
       </c>
       <c r="F13" s="17">
         <v>5369</v>
@@ -3584,19 +3731,19 @@
         <v>3752.931</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:21">
       <c r="B14" s="3" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E14" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45792</v>
+        <v>45809</v>
       </c>
       <c r="F14" s="17">
         <v>2153</v>
@@ -3618,19 +3765,19 @@
         <v>1504.9470000000001</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:21">
       <c r="B15" s="3" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E15" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45791</v>
+        <v>45808</v>
       </c>
       <c r="F15" s="17">
         <v>4752</v>
@@ -3651,16 +3798,17 @@
         <f t="shared" si="3"/>
         <v>3321.6480000000001</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U15" s="26"/>
+    </row>
+    <row r="16" spans="2:21">
       <c r="B16" s="14" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="15"/>
       <c r="E16" s="14">
         <f ca="1">SUM(E4:E15)</f>
-        <v>549558</v>
+        <v>549762</v>
       </c>
       <c r="F16" s="13">
         <f>SUM(F4:F15)</f>
@@ -3683,42 +3831,150 @@
         <v>22580.495999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10">
       <c r="D17"/>
-    </row>
-    <row r="18" spans="1:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="26"/>
+    </row>
+    <row r="18" spans="1:10" ht="36.6" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H4:I15">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:I15">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:I15">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G15">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="greaterThan">
+      <formula>169.6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F15">
+    <cfRule type="top10" dxfId="3" priority="9" percent="1" rank="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J15">
+    <cfRule type="iconSet" priority="8">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J15">
+    <cfRule type="iconSet" priority="7">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J15">
+    <cfRule type="iconSet" priority="6">
+      <iconSet iconSet="4Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J15">
+    <cfRule type="iconSet" priority="5">
+      <iconSet iconSet="5Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="20"/>
+        <cfvo type="percent" val="40"/>
+        <cfvo type="percent" val="60"/>
+        <cfvo type="percent" val="80"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J15">
+    <cfRule type="iconSet" priority="4">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E15">
+    <cfRule type="timePeriod" dxfId="2" priority="3" timePeriod="lastWeek">
+      <formula>AND(TODAY()-ROUNDDOWN(E4,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(E4,0)&lt;(WEEKDAY(TODAY())+7))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C15">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>LEN(C4)&gt;5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D15">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="H">
+      <formula>NOT(ISERROR(SEARCH("H",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
